--- a/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,32; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,95; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,96; 6,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,9; 5,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>5,97; 13,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,89; 9,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,95; 3,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,56; 7,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,14; 7,11</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,58; 2,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,03; 4,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,62; 4,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,32; 7,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,96; 8,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,53; 10,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,68; 9,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>9,19; 13,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,48; 4,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,82; 6,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,6; 6,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,88; 9,83</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,6; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,03; 8,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,27; 2,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>1,12; 4,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>2,74; 7,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,47; 13,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,15; 1,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,05; 3,45</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,6; 4,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>7,02; 10,44</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,45; 3,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,17; 3,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,22; 4,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>3,7; 9,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,53; 5,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,01; 9,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>6,86; 13,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>6,63; 11,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,24; 3,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,35; 5,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>4,47; 8,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>6,15; 9,94</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,86; 4,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>0,95; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>1,37; 7,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,97; 6,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,94; 9,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>12,57; 22,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>5,72; 12,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>8,44; 13,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,27; 5,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>7,38; 13,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>4,32; 8,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,93; 9,43</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,93%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,35; 3,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>2,09; 7,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>6,92; 12,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,07; 4,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>1,56; 6,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>7,46; 15,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>13,66; 19,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,91; 3,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,1; 3,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>5,48; 10,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>11,05; 14,89</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,75%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,01; 3,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0,46; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,39; 7,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,06; 8,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,41; 5,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,6; 4,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>6,42; 10,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>7,07; 13,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,07; 3,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,25; 2,85</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,38; 8,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>6,71; 10,54</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,67; 5,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,84; 4,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>0,5; 2,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,68; 5,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,49; 8,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,93; 9,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,94; 7,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,07; 11,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,96; 6,25</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,3; 6,73</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,51; 4,46</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,25; 7,98</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,57; 2,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,52; 2,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,14; 3,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,55; 6,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,51; 4,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,54; 7,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,7; 8,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>9,27; 11,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,71; 3,52</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,75; 4,76</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,62; 5,7</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>7,36; 8,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,02%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 4,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,07</t>
+          <t>1,78; 5,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 9,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,04</t>
+          <t>4,66; 8,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,38; 5,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,11</t>
+          <t>3,79; 6,63</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,68</t>
+          <t>3,18; 7,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 13,94</t>
+          <t>9,15; 13,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 9,83</t>
+          <t>6,67; 9,58</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,5</t>
+          <t>3,91; 8,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,65</t>
+          <t>8,37; 13,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,44</t>
+          <t>6,86; 10,2</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,54</t>
+          <t>0,82; 3,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,82</t>
+          <t>3,69; 9,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,1</t>
+          <t>5,06; 10,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,8</t>
+          <t>4,26; 10,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,53</t>
+          <t>3,33; 6,4</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,94</t>
+          <t>5,04; 9,17</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,36</t>
+          <t>1,98; 6,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,57</t>
+          <t>8,53; 13,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,43</t>
+          <t>5,94; 9,47</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,5</t>
+          <t>6,79; 12,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,66; 19,94</t>
+          <t>13,62; 19,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 14,89</t>
+          <t>10,85; 14,68</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,25</t>
+          <t>3,93; 8,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,73</t>
+          <t>5,02; 13,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 10,54</t>
+          <t>5,21; 9,78</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,68; 5,21</t>
+          <t>1,3; 4,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,66</t>
+          <t>7,13; 11,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,98</t>
+          <t>3,53; 7,12</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,42%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,14</t>
+          <t>3,72; 5,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,27; 11,49</t>
+          <t>7,9; 10,98</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,36; 8,69</t>
+          <t>6,41; 8,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,81</t>
+          <t>0,32; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,83</t>
+          <t>0,86; 5,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,09</t>
+          <t>0,89; 4,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,63</t>
+          <t>1,77; 5,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,4</t>
+          <t>0,84; 5,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 9,66</t>
+          <t>3,33; 9,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 13,33</t>
+          <t>5,88; 12,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,75</t>
+          <t>4,79; 9,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,7</t>
+          <t>1,0; 3,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,72</t>
+          <t>2,61; 6,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 7,98</t>
+          <t>3,72; 8,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,63</t>
+          <t>3,82; 6,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,76</t>
+          <t>0,6; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,74</t>
+          <t>1,0; 4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,54</t>
+          <t>1,4; 4,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,45</t>
+          <t>3,21; 7,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,01</t>
+          <t>4,04; 8,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 10,6</t>
+          <t>5,45; 10,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 9,42</t>
+          <t>4,81; 9,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 13,86</t>
+          <t>8,99; 13,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,8</t>
+          <t>2,56; 4,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,83</t>
+          <t>3,88; 6,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,33</t>
+          <t>3,64; 6,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 9,58</t>
+          <t>6,72; 9,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,37</t>
+          <t>0,0; 1,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,44</t>
+          <t>0,6; 3,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,3</t>
+          <t>3,99; 8,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,59</t>
+          <t>0,27; 2,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,58</t>
+          <t>0,94; 4,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 7,35</t>
+          <t>2,67; 7,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,49</t>
+          <t>8,41; 13,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,52</t>
+          <t>0,15; 1,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,45</t>
+          <t>1,06; 3,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,17</t>
+          <t>1,61; 4,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,2</t>
+          <t>6,99; 10,82</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 3,35</t>
+          <t>0,46; 3,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,78</t>
+          <t>0,81; 3,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,26</t>
+          <t>1,15; 4,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,8</t>
+          <t>3,75; 9,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,24</t>
+          <t>1,48; 5,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,18</t>
+          <t>5,1; 10,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,0</t>
+          <t>6,72; 12,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 10,26</t>
+          <t>4,28; 10,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,6</t>
+          <t>1,26; 3,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,4</t>
+          <t>3,49; 6,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,0</t>
+          <t>4,4; 8,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,17</t>
+          <t>4,92; 9,3</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,93</t>
+          <t>0,85; 4,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 5,5</t>
+          <t>0,94; 5,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,05</t>
+          <t>1,76; 7,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,36</t>
+          <t>2,03; 6,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,94; 9,58</t>
+          <t>2,87; 9,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,57; 22,75</t>
+          <t>12,67; 23,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 12,84</t>
+          <t>5,56; 13,2</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 13,68</t>
+          <t>8,44; 13,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,98</t>
+          <t>2,33; 5,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,28</t>
+          <t>7,36; 13,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,32; 8,94</t>
+          <t>4,26; 8,93</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 9,47</t>
+          <t>5,97; 9,51</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,2</t>
+          <t>0,35; 3,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0,0; 2,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,09</t>
+          <t>2,13; 6,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,27</t>
+          <t>6,81; 12,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,88</t>
+          <t>1,08; 4,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,65</t>
+          <t>1,72; 6,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,27</t>
+          <t>7,41; 15,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,9</t>
+          <t>13,57; 19,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,25</t>
+          <t>0,89; 3,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,77</t>
+          <t>1,11; 3,99</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,29</t>
+          <t>5,34; 9,82</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 14,68</t>
+          <t>10,84; 14,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,24</t>
+          <t>1,17; 3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,46</t>
+          <t>0,59; 2,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,06</t>
+          <t>3,31; 7,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,36</t>
+          <t>3,91; 8,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,65</t>
+          <t>2,46; 5,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,6; 4,23</t>
+          <t>1,48; 4,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,85</t>
+          <t>6,23; 10,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 13,29</t>
+          <t>3,74; 13,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,92</t>
+          <t>2,09; 4,0</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,85</t>
+          <t>1,3; 2,9</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,37</t>
+          <t>5,47; 8,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,21; 9,78</t>
+          <t>5,06; 9,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,47</t>
+          <t>2,47; 5,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,61</t>
+          <t>1,93; 4,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,17</t>
+          <t>0,5; 2,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,47</t>
+          <t>1,2; 4,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,02</t>
+          <t>4,66; 8,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,75</t>
+          <t>5,95; 9,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,54</t>
+          <t>3,85; 7,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,3</t>
+          <t>7,18; 11,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,25</t>
+          <t>4,01; 6,18</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,3; 6,73</t>
+          <t>4,29; 6,67</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,46</t>
+          <t>2,45; 4,41</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,12</t>
+          <t>3,23; 7,01</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,55</t>
+          <t>1,54; 2,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,61</t>
+          <t>1,54; 2,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,14; 3,33</t>
+          <t>2,17; 3,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,71</t>
+          <t>3,79; 5,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,9</t>
+          <t>3,46; 4,86</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,54; 7,11</t>
+          <t>5,44; 7,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,7; 8,52</t>
+          <t>6,62; 8,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,98</t>
+          <t>8,32; 10,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,71; 3,52</t>
+          <t>2,71; 3,54</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,75; 4,76</t>
+          <t>3,71; 4,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>4,62; 5,7</t>
+          <t>4,59; 5,75</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,41; 8,16</t>
+          <t>6,39; 8,13</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido pastillas para dormir en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6607</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6833</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10623</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6591</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15937</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25319</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19569</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>10743</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22544</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32152</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30192</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>879; 10427</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2507; 14836</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2610; 14219</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5520; 16788</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2179; 13313</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9289; 25386</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16981; 36911</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13870; 26279</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5345; 20474</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14889; 34376</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21664; 46573</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22946; 39366</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6860</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12138</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13496</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>25386</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>28783</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>39983</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>36046</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57855</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35643</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>52121</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49542</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>83241</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2945; 13484</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5061; 24271</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7016; 21250</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16615; 39190</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20341; 41211</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>28472; 54099</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25183; 51406</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>46169; 69861</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>25544; 48715</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>39873; 71884</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>37333; 65550</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>69261; 102144</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2186</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18616</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3054</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8112</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37714</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3926</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>13091</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17681</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56330</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4732</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1946; 11143</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 7707</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12575; 27389</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>907; 8224</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3204; 15006</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8965; 24401</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>29363; 48216</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>977; 9792</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7064; 23054</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10537; 27285</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46465; 71898</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4394</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8729</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19395</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11401</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>28868</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>36979</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35125</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>15794</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>36053</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>45709</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>54520</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1635; 11226</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3017; 14395</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4262; 16280</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11715; 30393</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5489; 19211</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19790; 40234</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>26014; 48971</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20348; 49913</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9164; 25455</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>26621; 49090</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>33349; 61384</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>38769; 73275</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4443</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5396</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7535</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6620</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11497</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38191</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>19215</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22465</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15939</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>43587</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>26750</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>29085</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1737; 9881</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1996; 12592</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3720; 15820</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3629; 11089</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5951; 19745</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27833; 51741</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12161; 28847</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17612; 28878</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>9575; 24324</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31826; 57484</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>18314; 38379</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>23115; 36856</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2954</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10250</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>24764</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7014</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>10080</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30300</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>42381</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9967</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>12076</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40550</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>67144</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>955; 8705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6110</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5596; 17548</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18351; 32700</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3014; 13661</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4810; 19157</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>20240; 41977</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>34872; 50781</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4872; 17952</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6146; 22060</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>28637; 52670</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>57089; 78773</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>12411</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>32422</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>34763</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>24363</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>18409</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>57715</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>81358</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36774</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26432</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>90137</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>116121</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>7225; 22153</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3896; 16379</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21706; 46400</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>24424; 51542</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15719; 35571</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>10296; 28539</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43060; 75318</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31779; 113896</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>26166; 50131</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17606; 39328</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>73784; 114326</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>74538; 142619</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>28839</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23699</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>8573</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>27616</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>47970</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>63379</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>45412</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>63452</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>76809</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>87077</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>53985</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>91068</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>18379; 40423</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15005; 35818</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3926; 17600</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>11135; 42277</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>36487; 63518</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>48873; 79857</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>31816; 60538</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>51324; 82791</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>61241; 94346</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>68498; 106515</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>39377; 70827</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>53032; 115262</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>875</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>70022</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>90024</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>167783</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>140672</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>222959</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>266481</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>359919</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>205596</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>292981</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>356505</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>527702</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>50520; 80965</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>52781; 90023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>73728; 112248</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>131136; 196992</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>116772; 164191</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>192835; 254178</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>234670; 297806</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>304452; 401918</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>180172; 235616</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>258055; 326046</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>318409; 399037</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>455011; 578475</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>